--- a/data/financial_statements/soci/MKC.xlsx
+++ b/data/financial_statements/soci/MKC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="K1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="V1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1596000000</v>
+        <v>1595600000</v>
       </c>
       <c r="C2">
-        <v>1537000000</v>
+        <v>1536800000</v>
       </c>
       <c r="D2">
-        <v>1522000000</v>
+        <v>1522400000</v>
       </c>
       <c r="E2">
-        <v>1730000000</v>
+        <v>1730300000</v>
       </c>
       <c r="F2">
-        <v>1549000000</v>
+        <v>1549400000</v>
       </c>
       <c r="G2">
         <v>1556700000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.0303</v>
+        <v>0.0298</v>
       </c>
       <c r="C3">
-        <v>-0.0127</v>
+        <v>-0.0128</v>
       </c>
       <c r="D3">
-        <v>0.0273</v>
+        <v>0.0276</v>
       </c>
       <c r="E3">
-        <v>0.1105</v>
+        <v>0.1107</v>
       </c>
       <c r="F3">
-        <v>0.083</v>
+        <v>0.0833</v>
       </c>
       <c r="G3">
         <v>0.1111</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1030000000</v>
+        <v>1028900000</v>
       </c>
       <c r="C4">
-        <v>1014000000</v>
+        <v>1013800000</v>
       </c>
       <c r="D4">
         <v>962000000</v>
       </c>
       <c r="E4">
-        <v>1023000000</v>
+        <v>1027400000</v>
       </c>
       <c r="F4">
-        <v>950000000</v>
+        <v>949800000</v>
       </c>
       <c r="G4">
         <v>942100000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>566000000</v>
+        <v>566700000</v>
       </c>
       <c r="C5">
-        <v>523000000</v>
+        <v>523000100</v>
       </c>
       <c r="D5">
-        <v>561000000</v>
+        <v>560400000</v>
       </c>
       <c r="E5">
-        <v>708000000</v>
+        <v>702900000</v>
       </c>
       <c r="F5">
-        <v>600000000</v>
+        <v>599600000</v>
       </c>
       <c r="G5">
         <v>614600000</v>
@@ -1102,8 +1213,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>328100000</v>
@@ -1118,7 +1229,7 @@
         <v>398900100</v>
       </c>
       <c r="F6">
-        <v>327000000</v>
+        <v>327300000</v>
       </c>
       <c r="G6">
         <v>356600000</v>
@@ -1224,8 +1335,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>235200000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>41000000</v>
@@ -1384,11 +1495,11 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>5000000</v>
+        <v>37900000</v>
       </c>
       <c r="C9">
         <v>33700000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>77000000</v>
+        <v>39500000</v>
       </c>
       <c r="C10">
-        <v>22000000</v>
+        <v>-27400000</v>
       </c>
       <c r="D10">
-        <v>25000000</v>
+        <v>-26900000</v>
       </c>
       <c r="E10">
-        <v>36000000</v>
+        <v>-28000000</v>
       </c>
       <c r="F10">
-        <v>9000000</v>
+        <v>-30400000</v>
       </c>
       <c r="G10">
         <v>-31700000</v>
@@ -1628,8 +1739,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D11">
         <v>9300000</v>
@@ -1642,23 +1753,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>275000000</v>
+        <v>274700000</v>
       </c>
       <c r="C12">
-        <v>130000000</v>
+        <v>129800000</v>
       </c>
       <c r="D12">
         <v>180000000</v>
       </c>
       <c r="E12">
-        <v>248000000</v>
+        <v>248200000</v>
       </c>
       <c r="F12">
-        <v>235000000</v>
+        <v>234800000</v>
       </c>
       <c r="G12">
         <v>205700000</v>
@@ -1764,23 +1875,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>59000000</v>
+        <v>59300000</v>
       </c>
       <c r="C13">
-        <v>22000000</v>
+        <v>21700000</v>
       </c>
       <c r="D13">
-        <v>34000000</v>
+        <v>34400000</v>
       </c>
       <c r="E13">
-        <v>57000000</v>
+        <v>57200000</v>
       </c>
       <c r="F13">
-        <v>32000000</v>
+        <v>31500000</v>
       </c>
       <c r="G13">
         <v>45400000</v>
@@ -1886,8 +1997,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>215400000</v>
@@ -2008,8 +2119,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2034,8 +2145,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>-7500000</v>
@@ -2153,23 +2264,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>223000000</v>
+        <v>222900000</v>
       </c>
       <c r="C17">
-        <v>119000000</v>
+        <v>118500000</v>
       </c>
       <c r="D17">
-        <v>155000000</v>
+        <v>154900000</v>
       </c>
       <c r="E17">
-        <v>197000000</v>
+        <v>197400000</v>
       </c>
       <c r="F17">
-        <v>212000000</v>
+        <v>212400000</v>
       </c>
       <c r="G17">
         <v>183700000</v>
@@ -2275,20 +2386,20 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C18">
         <v>0.44</v>
       </c>
       <c r="D18">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="E18">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="F18">
         <v>0.79</v>
@@ -2397,8 +2508,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.82</v>
@@ -2519,23 +2630,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>268000000</v>
+        <v>268300000</v>
       </c>
       <c r="C20">
-        <v>268000000</v>
+        <v>268300000</v>
       </c>
       <c r="D20">
-        <v>268000000</v>
+        <v>267800000</v>
       </c>
       <c r="E20">
-        <v>267000000</v>
+        <v>267300000</v>
       </c>
       <c r="F20">
-        <v>267000000</v>
+        <v>267400000</v>
       </c>
       <c r="G20">
         <v>267300000</v>
@@ -2641,20 +2752,20 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>270000000</v>
+        <v>270200000</v>
       </c>
       <c r="C21">
-        <v>271000000</v>
+        <v>270500000</v>
       </c>
       <c r="D21">
-        <v>271000000</v>
+        <v>270500000</v>
       </c>
       <c r="E21">
-        <v>270000000</v>
+        <v>269900000</v>
       </c>
       <c r="F21">
         <v>270000000</v>
@@ -2763,23 +2874,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.3546</v>
+        <v>0.3552</v>
       </c>
       <c r="C22">
         <v>0.3403</v>
       </c>
       <c r="D22">
-        <v>0.3686</v>
+        <v>0.3681</v>
       </c>
       <c r="E22">
-        <v>0.4092</v>
+        <v>0.4062</v>
       </c>
       <c r="F22">
-        <v>0.3873</v>
+        <v>0.387</v>
       </c>
       <c r="G22">
         <v>0.3948</v>
@@ -2885,8 +2996,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1474</v>
@@ -2898,7 +3009,7 @@
         <v>0.1359</v>
       </c>
       <c r="E23">
-        <v>0.1597</v>
+        <v>0.1596</v>
       </c>
       <c r="F23">
         <v>0.1712</v>
@@ -3007,23 +3118,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1723</v>
+        <v>0.1722</v>
       </c>
       <c r="C24">
-        <v>0.08459999999999999</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="D24">
-        <v>0.1183</v>
+        <v>0.1182</v>
       </c>
       <c r="E24">
         <v>0.1434</v>
       </c>
       <c r="F24">
-        <v>0.1517</v>
+        <v>0.1515</v>
       </c>
       <c r="G24">
         <v>0.1321</v>
@@ -3129,23 +3240,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.1397</v>
       </c>
       <c r="C25">
-        <v>0.0774</v>
+        <v>0.0771</v>
       </c>
       <c r="D25">
-        <v>0.1018</v>
+        <v>0.1017</v>
       </c>
       <c r="E25">
-        <v>0.1139</v>
+        <v>0.1141</v>
       </c>
       <c r="F25">
-        <v>0.1369</v>
+        <v>0.1371</v>
       </c>
       <c r="G25">
         <v>0.118</v>
@@ -3251,23 +3362,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>288000000</v>
+        <v>285200000</v>
       </c>
       <c r="C26">
-        <v>223000000</v>
+        <v>206400100</v>
       </c>
       <c r="D26">
-        <v>276000000</v>
+        <v>255900000</v>
       </c>
       <c r="E26">
-        <v>356000000</v>
+        <v>323400300</v>
       </c>
       <c r="F26">
-        <v>320000000</v>
+        <v>312400100</v>
       </c>
       <c r="G26">
         <v>281200000</v>
@@ -3373,8 +3484,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>235200000</v>
@@ -3495,8 +3606,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>215400000</v>
@@ -3617,23 +3728,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>223000000</v>
+        <v>215400000</v>
       </c>
       <c r="C29">
-        <v>119000000</v>
+        <v>108100000</v>
       </c>
       <c r="D29">
-        <v>155000000</v>
+        <v>145600000</v>
       </c>
       <c r="E29">
-        <v>197000000</v>
+        <v>191000000</v>
       </c>
       <c r="F29">
-        <v>212000000</v>
+        <v>203300000</v>
       </c>
       <c r="G29">
         <v>160300000</v>
@@ -3739,8 +3850,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.8028</v>
@@ -3861,8 +3972,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.7972</v>
@@ -3983,8 +4094,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.8028</v>
@@ -4105,8 +4216,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.7972</v>
@@ -4227,8 +4338,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>270200000</v>
@@ -4349,23 +4460,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.1805</v>
+        <v>0.1787</v>
       </c>
       <c r="C35">
-        <v>0.1451</v>
+        <v>0.1343</v>
       </c>
       <c r="D35">
-        <v>0.1813</v>
+        <v>0.1681</v>
       </c>
       <c r="E35">
-        <v>0.2058</v>
+        <v>0.1869</v>
       </c>
       <c r="F35">
-        <v>0.2066</v>
+        <v>0.2016</v>
       </c>
       <c r="G35">
         <v>0.1806</v>
@@ -4471,8 +4582,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.06</v>
